--- a/data/covid19/covid19_beds.xlsx
+++ b/data/covid19/covid19_beds.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/covid19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D9B9C8-ABDE-584C-9D41-F7B2EA41E339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85B96F9-24CF-A446-BDE9-DBE2F7F260F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19060" yWindow="4420" windowWidth="27640" windowHeight="16940" xr2:uid="{BB09E412-C0BC-6046-97A5-94CDD69608D4}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="40960" windowHeight="16560" xr2:uid="{BB09E412-C0BC-6046-97A5-94CDD69608D4}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
     <sheet name="semi_severe" sheetId="2" r:id="rId2"/>
     <sheet name="severe" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747BC1D-383C-5F44-83C1-4A6F7BA326BC}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H40"/>
     </sheetView>
   </sheetViews>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="A1:H40"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
